--- a/biology/Microbiologie/Apertospathulidae/Apertospathulidae.xlsx
+++ b/biology/Microbiologie/Apertospathulidae/Apertospathulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Apertospathulidae sont une famille de Ciliés de la classe des Gymnostomatea et de l’ordre des Spathidiida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Apertospathula, dérivé du latin apert, ouvert, et de spath, « spatule, épée à lame large ».
 </t>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Apertospathula, Longispatha et Rhinothrix sont trois genres de ciliés rares. Ils ont une caractéristique distincte en commun : un renflement buccal en forme de lasso et une cinétie[note 1] péribuccale dont la moitié droite est plus longue que la gauche et est ouverte ventralement. Cela justifie la création de la famille des Apertospathulidae, qui a probablement évolué à partir d'un ancêtre semblable à Bryophyllum[note 2] par réduction partielle du renflement buccal et de la circonférence de la bouche.
 Apertospathula verruculifera a un processus semblable à une verrue situé à l'extrémité antérieure de la brosse dorsale[note 3] : le palpus dorsalis.
 Longispatha elegans a un renflement buccal droit et une cinétie péribuccale, dont la branche droite s'étend jusqu'à l'extrémité postérieure du corps tandis que la branche gauche se termine dans le tiers antérieur du corps.
-Rhinothrix porculus est un curieux cilié dont l’allongement dorsal est comme le museau du renflement buccal : le palpus oralis. Il présente un motif ciliaire très caractéristique : en effet, si le motif oral est similaire à celui de Longispatha, par contre le renflement et la cinétie circumorale s'étendent en spirale jusqu'à l'extrémité postérieure du corps tandis que les cinésies somatiques s'étendent méridionalement[note 4],[1].
+Rhinothrix porculus est un curieux cilié dont l’allongement dorsal est comme le museau du renflement buccal : le palpus oralis. Il présente un motif ciliaire très caractéristique : en effet, si le motif oral est similaire à celui de Longispatha, par contre le renflement et la cinétie circumorale s'étendent en spirale jusqu'à l'extrémité postérieure du corps tandis que les cinésies somatiques s'étendent méridionalement[note 4],.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (9 janvier 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (9 janvier 2023) :
 Apertospathula Foissner, Agatha &amp; Berger, 2002
 Longispatha Foissner, Xu &amp; Kreutz, 2005
 Rhinothrix Foissner, Xu &amp; Kreutz, 2005</t>
@@ -609,9 +627,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Apertospathulidae Foissner, Xu &amp; Kreutz, 2005[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Apertospathulidae Foissner, Xu &amp; Kreutz, 2005.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(en) W. Foissner, K. Xu &amp; M. Kreutz. The Apertospathulidae, a New Family of Haptorid Ciliates (Protozoa, Ciliophora)[1],[4].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) W. Foissner, K. Xu &amp; M. Kreutz. The Apertospathulidae, a New Family of Haptorid Ciliates (Protozoa, Ciliophora),.</t>
         </is>
       </c>
     </row>
